--- a/Motherboard/REV20200407C/SensorMotherBoard_REVC_reviews/PCB_issues_after_build.xlsx
+++ b/Motherboard/REV20200407C/SensorMotherBoard_REVC_reviews/PCB_issues_after_build.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\git\SensorCard\Motherboard\REV20200407C\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\git\SensorCard\Motherboard\REV20200407C\SensorMotherBoard_REVC_reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61861325-7E5C-4982-9BF8-4B856DA7A2E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C992EC-2593-4DD1-B1E1-F2531B8FA567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12330" yWindow="-14510" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Silkscreen overlap</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>U21, U22</t>
+  </si>
+  <si>
+    <t>Designator misplaced</t>
+  </si>
+  <si>
+    <t>P1, P4, P5, P8</t>
   </si>
 </sst>
 </file>
@@ -363,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:B7"/>
+  <dimension ref="A5:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,6 +404,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
